--- a/data/trans_orig/CLASESOCIAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366AA08A-423E-42D7-8E50-C45FF3F306A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F98F176-BFD5-42EA-997E-2C01A7DD3D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BBBC375-323C-4940-8C59-F9F878CE5BF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85EA52B8-96AA-4F47-9A33-976C79B26D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="684">
   <si>
     <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2012 (Tasa respuesta: 79,7%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>67,97%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>Grupo III</t>
@@ -106,1969 +106,1963 @@
     <t>18,17%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>Grupo II</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>Grupo I</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2016 (Tasa respuesta: 80,47%)</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>Grupo II</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>Grupo I</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
   </si>
   <si>
     <t>12,74%</t>
@@ -2507,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6F6B9A-66E7-4BA3-9E5B-A6313759E6A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC22B7F5-7EC2-4C2B-96AC-F40FD439ECC9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3077,7 +3071,7 @@
         <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3145,13 +3139,13 @@
         <v>327491</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -3160,13 +3154,13 @@
         <v>369675</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -3175,13 +3169,13 @@
         <v>697165</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3190,13 @@
         <v>132903</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -3211,13 +3205,13 @@
         <v>52254</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>179</v>
@@ -3226,13 +3220,13 @@
         <v>185157</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3241,13 @@
         <v>107335</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -3262,13 +3256,13 @@
         <v>112744</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -3277,13 +3271,13 @@
         <v>220079</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3292,13 @@
         <v>109869</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -3313,13 +3307,13 @@
         <v>93357</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>194</v>
@@ -3328,13 +3322,13 @@
         <v>203226</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,7 +3384,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3402,13 +3396,13 @@
         <v>316347</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -3417,13 +3411,13 @@
         <v>286600</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>536</v>
@@ -3432,13 +3426,13 @@
         <v>602947</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3447,13 @@
         <v>108431</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3468,13 +3462,13 @@
         <v>47505</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -3483,13 +3477,13 @@
         <v>155936</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3498,13 @@
         <v>92866</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>65</v>
@@ -3519,13 +3513,13 @@
         <v>77799</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -3534,13 +3528,13 @@
         <v>170664</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3549,13 @@
         <v>91595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -3570,13 +3564,13 @@
         <v>63130</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -3585,13 +3579,13 @@
         <v>154726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3641,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3659,13 +3653,13 @@
         <v>203761</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>166</v>
@@ -3674,13 +3668,13 @@
         <v>182718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>353</v>
@@ -3689,13 +3683,13 @@
         <v>386479</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3704,13 @@
         <v>102648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -3725,13 +3719,13 @@
         <v>37776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -3740,13 +3734,13 @@
         <v>140424</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3755,13 @@
         <v>51526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3776,13 +3770,13 @@
         <v>21838</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -3791,13 +3785,13 @@
         <v>73364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3806,13 @@
         <v>70482</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -3827,13 +3821,13 @@
         <v>13493</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>74</v>
@@ -3842,13 +3836,13 @@
         <v>83975</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3898,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3916,13 +3910,13 @@
         <v>334448</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>234</v>
@@ -3931,13 +3925,13 @@
         <v>248496</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>545</v>
@@ -3946,13 +3940,13 @@
         <v>582944</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3961,13 @@
         <v>118653</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>52</v>
@@ -3982,13 +3976,13 @@
         <v>54615</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -3997,13 +3991,13 @@
         <v>173268</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4012,13 @@
         <v>60630</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -4033,13 +4027,13 @@
         <v>18902</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -4048,13 +4042,13 @@
         <v>79531</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4063,13 @@
         <v>43918</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4084,13 +4078,13 @@
         <v>25289</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -4099,13 +4093,13 @@
         <v>69207</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4167,13 @@
         <v>1669606</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>1414</v>
@@ -4188,13 +4182,13 @@
         <v>1528179</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>2984</v>
@@ -4203,13 +4197,13 @@
         <v>3197785</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4218,13 @@
         <v>629415</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>244</v>
@@ -4239,13 +4233,13 @@
         <v>260129</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>835</v>
@@ -4254,13 +4248,13 @@
         <v>889544</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4269,13 @@
         <v>418797</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>305</v>
@@ -4290,13 +4284,13 @@
         <v>338011</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>680</v>
@@ -4305,13 +4299,13 @@
         <v>756808</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4320,13 @@
         <v>437211</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>283</v>
@@ -4341,13 +4335,13 @@
         <v>314454</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>687</v>
@@ -4356,13 +4350,13 @@
         <v>751665</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,7 +4412,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EFDCAD-BF3C-4684-99C3-47574C92AC6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED5CEE3-A51A-4000-AF09-67C8E9EF6A02}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4457,7 +4451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4564,13 +4558,13 @@
         <v>127343</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>139</v>
@@ -4579,13 +4573,13 @@
         <v>135565</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>259</v>
@@ -4594,13 +4588,13 @@
         <v>262908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4609,13 @@
         <v>16671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4630,13 +4624,13 @@
         <v>6522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -4645,13 +4639,13 @@
         <v>23193</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4660,13 @@
         <v>10529</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -4681,13 +4675,13 @@
         <v>14051</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -4696,13 +4690,13 @@
         <v>24580</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4711,13 @@
         <v>17707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4732,13 +4726,13 @@
         <v>13132</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4747,13 +4741,13 @@
         <v>30839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4815,13 @@
         <v>331512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -4836,13 +4830,13 @@
         <v>296413</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M9" s="7">
         <v>622</v>
@@ -4851,13 +4845,13 @@
         <v>627924</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4866,13 @@
         <v>73290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4887,13 +4881,13 @@
         <v>24845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -4902,13 +4896,13 @@
         <v>98135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4917,13 @@
         <v>69988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -4938,13 +4932,13 @@
         <v>83362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M11" s="7">
         <v>151</v>
@@ -4953,13 +4947,13 @@
         <v>153350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4968,13 @@
         <v>77970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -4989,13 +4983,13 @@
         <v>89659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>168</v>
@@ -5004,13 +4998,13 @@
         <v>167630</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5060,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5078,13 +5072,13 @@
         <v>340329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5093,13 +5087,13 @@
         <v>325559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -5108,13 +5102,13 @@
         <v>665888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,10 +5126,10 @@
         <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -5144,13 +5138,13 @@
         <v>37814</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M15" s="7">
         <v>145</v>
@@ -5159,13 +5153,13 @@
         <v>149615</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5174,13 @@
         <v>104249</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -5195,13 +5189,13 @@
         <v>122693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5210,13 +5204,13 @@
         <v>226942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5225,13 @@
         <v>110849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -5246,13 +5240,13 @@
         <v>103093</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>207</v>
@@ -5261,13 +5255,13 @@
         <v>213942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5335,13 +5329,13 @@
         <v>360160</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>301</v>
@@ -5350,13 +5344,13 @@
         <v>325084</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>627</v>
@@ -5365,13 +5359,13 @@
         <v>685244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5380,13 @@
         <v>117466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -5401,13 +5395,13 @@
         <v>34303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -5416,13 +5410,13 @@
         <v>151769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5431,13 @@
         <v>86220</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -5452,13 +5446,13 @@
         <v>87272</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -5467,13 +5461,13 @@
         <v>173491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5482,13 @@
         <v>77733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -5503,13 +5497,13 @@
         <v>67593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -5518,13 +5512,13 @@
         <v>145326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5574,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5592,13 +5586,13 @@
         <v>261925</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H24" s="7">
         <v>197</v>
@@ -5607,13 +5601,13 @@
         <v>222903</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="M24" s="7">
         <v>431</v>
@@ -5622,13 +5616,13 @@
         <v>484828</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>235</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5637,13 @@
         <v>82425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5658,13 +5652,13 @@
         <v>16430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -5673,13 +5667,13 @@
         <v>98854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5688,13 @@
         <v>52897</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -5709,13 +5703,13 @@
         <v>47308</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
@@ -5724,13 +5718,13 @@
         <v>100205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>253</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5739,13 @@
         <v>76186</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>421</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -5760,13 +5754,13 @@
         <v>36689</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M27" s="7">
         <v>95</v>
@@ -5775,13 +5769,13 @@
         <v>112875</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>426</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,7 +5831,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5849,13 +5843,13 @@
         <v>349076</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>429</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>223</v>
@@ -5864,13 +5858,13 @@
         <v>258596</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>600</v>
@@ -5879,13 +5873,13 @@
         <v>607672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5894,13 @@
         <v>120261</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -5915,13 +5909,13 @@
         <v>46209</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M30" s="7">
         <v>165</v>
@@ -5930,13 +5924,13 @@
         <v>166470</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5945,13 @@
         <v>53344</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>445</v>
+        <v>278</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -5966,13 +5960,13 @@
         <v>17588</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -5981,13 +5975,13 @@
         <v>70932</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5996,13 @@
         <v>68647</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -6017,13 +6011,13 @@
         <v>36888</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -6032,13 +6026,13 @@
         <v>105535</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>460</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6100,13 @@
         <v>1770344</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>463</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7">
         <v>1497</v>
@@ -6121,13 +6115,13 @@
         <v>1564120</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="M34" s="7">
         <v>3197</v>
@@ -6136,13 +6130,13 @@
         <v>3334464</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6151,13 @@
         <v>521914</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="H35" s="7">
         <v>153</v>
@@ -6172,13 +6166,13 @@
         <v>166123</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="M35" s="7">
         <v>655</v>
@@ -6187,13 +6181,13 @@
         <v>688036</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6202,13 @@
         <v>377227</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>70</v>
+        <v>463</v>
       </c>
       <c r="H36" s="7">
         <v>352</v>
@@ -6223,13 +6217,13 @@
         <v>372273</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>479</v>
+        <v>183</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>706</v>
@@ -6238,13 +6232,13 @@
         <v>749500</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6253,13 @@
         <v>429092</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>148</v>
+        <v>468</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H37" s="7">
         <v>332</v>
@@ -6274,13 +6268,13 @@
         <v>347055</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>484</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>728</v>
@@ -6289,13 +6283,13 @@
         <v>776147</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6373,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262B49F-D693-413F-8FFC-970E4C582905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC9B8A1-37F2-46EC-B6E9-A9845570A424}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6390,7 +6384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6497,13 +6491,13 @@
         <v>118384</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -6512,13 +6506,13 @@
         <v>84455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -6527,13 +6521,13 @@
         <v>202839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6542,13 @@
         <v>5051</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6563,13 +6557,13 @@
         <v>7969</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6578,13 +6572,13 @@
         <v>13020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6593,13 @@
         <v>13096</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6614,13 +6608,13 @@
         <v>15981</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>328</v>
+        <v>495</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -6629,13 +6623,13 @@
         <v>29077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,13 +6644,13 @@
         <v>12177</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -6665,13 +6659,13 @@
         <v>19856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -6680,13 +6674,13 @@
         <v>32033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6748,13 @@
         <v>216034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H9" s="7">
         <v>244</v>
@@ -6769,13 +6763,13 @@
         <v>257036</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="M9" s="7">
         <v>408</v>
@@ -6784,13 +6778,13 @@
         <v>473070</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6799,13 @@
         <v>62746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -6820,13 +6814,13 @@
         <v>14447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -6835,13 +6829,13 @@
         <v>77193</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6850,13 @@
         <v>63927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>73</v>
@@ -6871,13 +6865,13 @@
         <v>80520</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -6886,13 +6880,13 @@
         <v>144447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6901,13 @@
         <v>63289</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -6922,13 +6916,13 @@
         <v>81276</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -6937,13 +6931,13 @@
         <v>144566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>356</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,7 +6993,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7011,13 +7005,13 @@
         <v>263449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>436</v>
@@ -7026,13 +7020,13 @@
         <v>296424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M14" s="7">
         <v>711</v>
@@ -7041,13 +7035,13 @@
         <v>559873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7056,13 @@
         <v>74555</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -7080,10 +7074,10 @@
         <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>553</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="M15" s="7">
         <v>118</v>
@@ -7092,13 +7086,13 @@
         <v>104562</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7107,13 @@
         <v>94736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>136</v>
@@ -7128,13 +7122,13 @@
         <v>94705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>559</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>569</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>221</v>
@@ -7143,13 +7137,13 @@
         <v>189441</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7158,13 @@
         <v>114931</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>152</v>
@@ -7179,13 +7173,13 @@
         <v>111089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>256</v>
@@ -7194,13 +7188,13 @@
         <v>226020</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,7 +7250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7268,13 +7262,13 @@
         <v>309562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H19" s="7">
         <v>566</v>
@@ -7283,13 +7277,13 @@
         <v>365206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M19" s="7">
         <v>875</v>
@@ -7298,13 +7292,13 @@
         <v>674768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7313,13 @@
         <v>159455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -7334,13 +7328,13 @@
         <v>35071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -7349,13 +7343,13 @@
         <v>194526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>585</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7364,13 @@
         <v>104641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H21" s="7">
         <v>172</v>
@@ -7385,13 +7379,13 @@
         <v>112339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>277</v>
+        <v>589</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>541</v>
       </c>
       <c r="M21" s="7">
         <v>275</v>
@@ -7400,13 +7394,13 @@
         <v>216981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7415,13 @@
         <v>121463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>599</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -7436,13 +7430,13 @@
         <v>128946</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -7451,13 +7445,13 @@
         <v>250408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,7 +7507,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7525,13 +7519,13 @@
         <v>299523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>513</v>
@@ -7540,13 +7534,13 @@
         <v>302816</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="M24" s="7">
         <v>849</v>
@@ -7555,13 +7549,13 @@
         <v>602339</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7570,13 @@
         <v>87012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -7591,10 +7585,10 @@
         <v>36680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>64</v>
@@ -7606,13 +7600,13 @@
         <v>123692</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7621,13 @@
         <v>95827</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -7642,13 +7636,13 @@
         <v>60600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>470</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>201</v>
@@ -7657,13 +7651,13 @@
         <v>156427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7672,13 @@
         <v>102721</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H27" s="7">
         <v>123</v>
@@ -7693,13 +7687,13 @@
         <v>71280</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M27" s="7">
         <v>240</v>
@@ -7708,13 +7702,13 @@
         <v>174001</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>627</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>482</v>
+        <v>628</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,7 +7764,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7782,13 +7776,13 @@
         <v>352841</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="H29" s="7">
         <v>702</v>
@@ -7797,13 +7791,13 @@
         <v>467765</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="M29" s="7">
         <v>1220</v>
@@ -7812,13 +7806,13 @@
         <v>820605</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +7827,7 @@
         <v>110570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>62</v>
+        <v>639</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>640</v>
@@ -7848,13 +7842,13 @@
         <v>58852</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>642</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="M30" s="7">
         <v>270</v>
@@ -7869,7 +7863,7 @@
         <v>644</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>645</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7884,13 +7878,13 @@
         <v>101827</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>599</v>
+        <v>427</v>
       </c>
       <c r="H31" s="7">
         <v>99</v>
@@ -7920,7 +7914,7 @@
         <v>651</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>652</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,7 +7929,7 @@
         <v>115631</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>653</v>
@@ -7953,10 +7947,10 @@
         <v>655</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="M32" s="7">
         <v>303</v>
@@ -8039,13 +8033,13 @@
         <v>1559793</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>659</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H34" s="7">
         <v>2519</v>
@@ -8054,13 +8048,13 @@
         <v>1773701</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>663</v>
+        <v>358</v>
       </c>
       <c r="M34" s="7">
         <v>4182</v>
@@ -8093,10 +8087,10 @@
         <v>667</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>668</v>
+        <v>260</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>669</v>
+        <v>395</v>
       </c>
       <c r="H35" s="7">
         <v>288</v>
@@ -8105,13 +8099,13 @@
         <v>183026</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="M35" s="7">
         <v>776</v>
@@ -8120,13 +8114,13 @@
         <v>682415</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8141,13 +8135,13 @@
         <v>474054</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>676</v>
+        <v>394</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>674</v>
       </c>
       <c r="H36" s="7">
         <v>590</v>
@@ -8156,13 +8150,13 @@
         <v>415723</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>584</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M36" s="7">
         <v>1069</v>
@@ -8171,13 +8165,13 @@
         <v>889777</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8186,13 @@
         <v>530212</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H37" s="7">
         <v>685</v>
@@ -8207,13 +8201,13 @@
         <v>485268</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M37" s="7">
         <v>1239</v>
@@ -8222,13 +8216,13 @@
         <v>1015480</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,7 +8278,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
